--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
@@ -808,7 +808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="D.D.D."]   하지만 라이타니엔인은 해냈잖아.
+    <t xml:space="preserve">[name="D.D.D."]   하지만 라이타니아인은 해냈잖아.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
@@ -664,19 +664,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="D.D.D."]   "From Ada.Closure.Church." ...Wait, it's Closure?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="D.D.D."]   "I heard the festival was a great success. Congrats :P" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Long time no see, Grace. Are you still in touch with Dijkstra? Let's find a chance to get him and do something great together next time!"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Oh right, make sure to take care of yourself :3"
+    <t xml:space="preserve">[name="D.D.D."]   'From Ada.Closure.Church.' ...Wait, it's Closure?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="D.D.D."]   'I heard the festival was a great success. Congrats :P' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Long time no see, Grace. Are you still in touch with Dijkstra? Let's find a chance to get him and do something great together next time!'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Oh right, make sure to take care of yourself :3'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
@@ -808,7 +808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="D.D.D."]   하지만 라이타니아인은 해냈잖아.
+    <t xml:space="preserve">[name="D.D.D."]   하지만 라이타니엔인은 해냈잖아.
 </t>
   </si>
   <si>
